--- a/чек-лист1.xlsx
+++ b/чек-лист1.xlsx
@@ -159,9 +159,6 @@
 2. Green infobox: 'Success! Hello: Polina P Klyutko' is shown </t>
   </si>
   <si>
-    <t>Redistration if in 'Name' field added dot</t>
-  </si>
-  <si>
     <t>1. In 'Name' field enter: 'Polina.'
 2. In 'Surname' field enter: 'Klyutko'
 3. In 'Email' field enter: 'Polinak@mail.ru'
@@ -358,9 +355,6 @@
 5. Press on 'Submit' button</t>
   </si>
   <si>
-    <t>Redistration if in 'Name' field added a minimum number of letters</t>
-  </si>
-  <si>
     <t>1. In 'Name' field enter: 'Po'
 2. In 'Surname' field enter: 'Klyutko'
 3. In 'Email' field enter: 'Polinak@mail.ru'
@@ -372,9 +366,6 @@
 2. Green infobox: 'Success! Hello: Po Klyutko' is shown </t>
   </si>
   <si>
-    <t>Redistration if in 'Name' field added the maximum number of letters</t>
-  </si>
-  <si>
     <t>1. In 'Name' field enter: 'PPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPP'
 2. In 'Surname' field enter: 'Klyutko'
 3. In 'Email' field enter: 'Polinak@mail.ru'
@@ -414,12 +405,6 @@
 5. Press on 'Submit' button</t>
   </si>
   <si>
-    <t>Redistration if in 'Password' field added a minimum of requirement</t>
-  </si>
-  <si>
-    <t>Redistration if in 'Password' field added the maximum of requirement</t>
-  </si>
-  <si>
     <t>1. In 'Name' field enter: 'Polina'
 2. In 'Surname' field enter: 'Klyutko'
 3. In 'Email' field enter: 'Polinak@mail.ru'
@@ -453,9 +438,6 @@
 2.Red infobox: ' Error: 'Password' doesn't meet the requirement' </t>
   </si>
   <si>
-    <t>Redistration if in 'Email' field added dots</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The 'Name' discription displaying correctly</t>
   </si>
   <si>
@@ -485,16 +467,34 @@
 5. Press on 'Submit' button </t>
   </si>
   <si>
-    <t>Redistration if in 'Name' field added greater than the maximum number of letters</t>
-  </si>
-  <si>
-    <t>Redistration if in 'Password' field added greater than the maximum of requirement</t>
-  </si>
-  <si>
-    <t>Redistration if in 'Name' field added less than a minimum number of letters</t>
-  </si>
-  <si>
-    <t>Redistration if in 'Password' field added less than a minimum of requirement</t>
+    <t>Redistration if in 'Password' field added only 4 symbols</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Name' field added only points</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Name' field added 2 symbols</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Name' field added 255 symbols</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Name' field added only 1 symbol</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Name' field added 256 symbols</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Email' field added points</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Password' field added 5 symbols</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Password' field added 32 symbols</t>
+  </si>
+  <si>
+    <t>Redistration if in 'Password' field added 33 symbols</t>
   </si>
 </sst>
 </file>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -951,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -973,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
@@ -984,7 +984,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>14</v>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -1037,7 +1037,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="15" spans="1:4" ht="75">
       <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="16" spans="1:4" ht="75">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>15</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="17" spans="1:4" ht="75">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="18" spans="1:4" ht="75">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="19" spans="1:4" ht="75">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="20" spans="1:4" ht="75">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="21" spans="1:4" ht="75">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="23" spans="1:4" ht="75">
       <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>15</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="25" spans="1:4" ht="75">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>36</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="26" spans="1:4" ht="75">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="27" spans="1:4" ht="75">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>15</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="28" spans="1:4" ht="75">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>15</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="29" spans="1:4" ht="75">
       <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>15</v>
@@ -1258,7 +1258,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>35</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="31" spans="1:4" ht="75">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="32" spans="1:4" ht="75">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>15</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="33" spans="1:4" ht="75">
       <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>15</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="34" spans="1:4" ht="75">
       <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>15</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="35" spans="1:4" ht="165">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>15</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="36" spans="1:4" ht="75">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>15</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="37" spans="1:4" ht="165">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>15</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="38" spans="1:4" ht="75">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>15</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="39" spans="1:4" ht="75">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>31</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="40" spans="1:4" ht="75">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>31</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="41" spans="1:4" ht="90">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>31</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="42" spans="1:4" ht="75">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>15</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="43" spans="1:4" ht="90">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>15</v>
